--- a/datos_fbref/RESUMEN_STATS_Primeira_Liga.xlsx
+++ b/datos_fbref/RESUMEN_STATS_Primeira_Liga.xlsx
@@ -1010,19 +1010,19 @@
         <v>25.9</v>
       </c>
       <c r="D9" t="n">
-        <v>46.9</v>
+        <v>47.8</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="n">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="G9" t="n">
-        <v>1980</v>
+        <v>2070</v>
       </c>
       <c r="H9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" t="n">
         <v>26</v>
@@ -1043,25 +1043,25 @@
         <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="R9" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="U9" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="10">
@@ -1613,58 +1613,58 @@
         <v>26.2</v>
       </c>
       <c r="D18" t="n">
-        <v>41.9</v>
+        <v>41.6</v>
       </c>
       <c r="E18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" t="n">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="G18" t="n">
-        <v>1980</v>
+        <v>2070</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J18" t="n">
         <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="R18" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="S18" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="T18" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="U18" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="19">
